--- a/out/CBP/Øko_konventionelt Nordsjælands hospitaler sept.xlsx
+++ b/out/CBP/Øko_konventionelt Nordsjælands hospitaler sept.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Sygehus lillebælt   Periode 01-09-2024 - 30-09-2024</t>
   </si>
@@ -221,46 +221,37 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>1% filler,17% containsTotalMass,17% containsSingleMass,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,</t>
+    <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
+    <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
+  </si>
+  <si>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
+  </si>
+  <si>
+    <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
     <t>1% filler,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>2% filler,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% TotalMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARENR, ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -302,7 +293,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,13 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
+        <fgColor rgb="FF8C898B"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
+        <fgColor rgb="FF8C898B"/>
       </patternFill>
     </fill>
     <fill>
@@ -399,35 +390,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FF093666"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FF093666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C898B"/>
+        <fgColor rgb="FFD8D34A"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C898B"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
+        <fgColor rgb="FF7A999A"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
+        <fgColor rgb="FF7A999A"/>
       </patternFill>
     </fill>
     <fill>
@@ -443,39 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF748BC7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF748BC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7A999A"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7A999A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF747D9B"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -483,17 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF747D9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF093666"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF093666"/>
       </patternFill>
     </fill>
     <fill>
@@ -510,6 +457,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -555,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -613,15 +572,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
@@ -636,30 +592,29 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="28" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="29" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="37" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="38" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,7 +1793,7 @@
       <c r="I5" s="18">
         <v>55</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="27">
         <v>10.6</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -1924,7 +1879,7 @@
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
@@ -1934,10 +1889,10 @@
       <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="27">
         <v>794.25</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="27">
         <v>37.5</v>
       </c>
       <c r="K8" s="24" t="s">
@@ -1957,7 +1912,7 @@
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3"/>
@@ -1973,7 +1928,7 @@
       <c r="J9" s="18">
         <v>20</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1990,7 +1945,7 @@
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="3"/>
@@ -2006,7 +1961,7 @@
       <c r="J10" s="18">
         <v>20</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2023,7 +1978,7 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="3"/>
@@ -2033,13 +1988,13 @@
       <c r="H11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="27">
         <v>410.4</v>
       </c>
       <c r="J11" s="18">
         <v>24</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2056,7 +2011,7 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="3"/>
@@ -2066,13 +2021,13 @@
       <c r="H12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="27">
         <v>518.6</v>
       </c>
       <c r="J12" s="18">
         <v>4</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2089,7 +2044,7 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="3"/>
@@ -2099,13 +2054,13 @@
       <c r="H13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="27">
         <v>449.38</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="27">
         <v>12.5</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="34" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2135,11 +2090,8 @@
       <c r="I14" s="18">
         <v>55</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="27">
         <v>10.6</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" ht="19.25">
@@ -2155,7 +2107,7 @@
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3"/>
@@ -2165,14 +2117,11 @@
       <c r="H15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="27">
         <v>1616.25</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <v>37.5</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" ht="19.25">
@@ -2204,9 +2153,6 @@
       <c r="J16" s="18">
         <v>0</v>
       </c>
-      <c r="K16" s="41" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="17" ht="19.25">
       <c r="A17" s="18">
@@ -2221,7 +2167,7 @@
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="3"/>
@@ -2237,9 +2183,6 @@
       <c r="J17" s="18">
         <v>75</v>
       </c>
-      <c r="K17" s="43" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="18" ht="19.3">
       <c r="A18" s="18">
@@ -2254,7 +2197,7 @@
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="3"/>
@@ -2374,7 +2317,7 @@
       <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="3"/>
@@ -2384,7 +2327,7 @@
       <c r="H22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="27">
         <v>529.5</v>
       </c>
       <c r="J22" s="18">
@@ -2404,7 +2347,7 @@
       <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="33" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="3"/>
@@ -2414,7 +2357,7 @@
       <c r="H23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="27">
         <v>841.25</v>
       </c>
       <c r="J23" s="18">
@@ -2444,10 +2387,10 @@
       <c r="H24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="27">
         <v>1323.75</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="27">
         <v>37.5</v>
       </c>
     </row>
@@ -2464,7 +2407,7 @@
       <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="3"/>
@@ -2474,10 +2417,10 @@
       <c r="H25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="27">
         <v>449.38</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="27">
         <v>12.5</v>
       </c>
     </row>
@@ -2494,7 +2437,7 @@
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="3"/>
@@ -2524,7 +2467,7 @@
       <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="3"/>
@@ -2584,7 +2527,7 @@
       <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="33" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="3"/>
@@ -2594,10 +2537,10 @@
       <c r="H29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="27">
         <v>431.25</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="27">
         <v>12.5</v>
       </c>
     </row>
@@ -2644,7 +2587,7 @@
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="3"/>
@@ -2654,7 +2597,7 @@
       <c r="H31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="27">
         <v>782.1</v>
       </c>
       <c r="J31" s="18">
@@ -2684,10 +2627,10 @@
       <c r="H32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="18">
         <v>-85</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="18">
         <v>-22</v>
       </c>
     </row>
@@ -2763,902 +2706,902 @@
     </row>
     <row r="2" ht="4" customHeight="1"/>
     <row r="3" ht="19.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="J3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="4" ht="19.25">
-      <c r="A4" s="4">
+      <c r="A4" s="38">
         <v>1232990</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="38">
         <v>1065</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="19.25">
-      <c r="A5" s="4">
+      <c r="A5" s="38">
         <v>1232990</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="38">
         <v>55</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="42">
         <v>10.6</v>
       </c>
     </row>
     <row r="6" ht="19.3">
-      <c r="A6" s="4">
+      <c r="A6" s="38">
         <v>1232990</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="41" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="38">
         <v>575</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="19.25">
-      <c r="A7" s="4">
+      <c r="A7" s="38">
         <v>1232990</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="38">
         <v>111</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="19.25">
-      <c r="A8" s="4">
+      <c r="A8" s="38">
         <v>1233479</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="38">
         <v>794.25</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="42">
         <v>37.5</v>
       </c>
     </row>
     <row r="9" ht="19.25">
-      <c r="A9" s="4">
+      <c r="A9" s="38">
         <v>1233479</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="38">
         <v>1160</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="19.25">
-      <c r="A10" s="4">
+      <c r="A10" s="38">
         <v>1233479</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="41" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="38">
         <v>1696</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="19.25">
-      <c r="A11" s="4">
+      <c r="A11" s="38">
         <v>1233479</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="41" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="38">
         <v>410.4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="42">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="19.3">
-      <c r="A12" s="4">
+      <c r="A12" s="38">
         <v>1233479</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="38">
         <v>518.6</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="19.25">
-      <c r="A13" s="4">
+      <c r="A13" s="38">
         <v>1233479</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="38">
         <v>449.38</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="42">
         <v>12.5</v>
       </c>
     </row>
     <row r="14" ht="19.25">
-      <c r="A14" s="4">
+      <c r="A14" s="38">
         <v>1233479</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="41" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="38">
         <v>55</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="42">
         <v>10.6</v>
       </c>
     </row>
     <row r="15" ht="19.25">
-      <c r="A15" s="4">
+      <c r="A15" s="38">
         <v>1233479</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="41" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="38">
         <v>1616.25</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="42">
         <v>37.5</v>
       </c>
     </row>
     <row r="16" ht="19.25">
-      <c r="A16" s="4">
+      <c r="A16" s="38">
         <v>1233479</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="38">
         <v>111</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="19.25">
-      <c r="A17" s="4">
+      <c r="A17" s="38">
         <v>1234192</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="38">
         <v>3150</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="42">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="19.3">
-      <c r="A18" s="4">
+      <c r="A18" s="38">
         <v>1234192</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="41" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="38">
         <v>6240</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="42">
         <v>60</v>
       </c>
     </row>
     <row r="19" ht="19.25">
-      <c r="A19" s="4">
+      <c r="A19" s="38">
         <v>1234192</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="41" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="38">
         <v>2105</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="20" ht="19.25">
-      <c r="A20" s="4">
+      <c r="A20" s="38">
         <v>1234192</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="41" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="38">
         <v>85</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="42">
         <v>22</v>
       </c>
     </row>
     <row r="21" ht="19.25">
-      <c r="A21" s="4">
+      <c r="A21" s="38">
         <v>1234192</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="38">
         <v>111</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="19.25">
-      <c r="A22" s="4">
+      <c r="A22" s="38">
         <v>1234756</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="38">
         <v>529.5</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="23" ht="19.25">
-      <c r="A23" s="4">
+      <c r="A23" s="38">
         <v>1234756</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="38">
         <v>841.25</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="24" ht="19.25">
-      <c r="A24" s="4">
+      <c r="A24" s="38">
         <v>1234756</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="38">
         <v>1323.75</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="42">
         <v>37.5</v>
       </c>
     </row>
     <row r="25" ht="19.3">
-      <c r="A25" s="4">
+      <c r="A25" s="38">
         <v>1234756</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="38">
         <v>449.38</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="42">
         <v>12.5</v>
       </c>
     </row>
     <row r="26" ht="19.25">
-      <c r="A26" s="4">
+      <c r="A26" s="38">
         <v>1234756</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="H26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="38">
         <v>1670</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="27" ht="19.25">
-      <c r="A27" s="4">
+      <c r="A27" s="38">
         <v>1234756</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="41" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="H27" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="38">
         <v>956</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="42">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="19.25">
-      <c r="A28" s="4">
+      <c r="A28" s="38">
         <v>1234756</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="41" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="H28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="38">
         <v>85</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="42">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="19.25">
-      <c r="A29" s="4">
+      <c r="A29" s="38">
         <v>1234756</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="41" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="H29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="38">
         <v>431.25</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="42">
         <v>12.5</v>
       </c>
     </row>
     <row r="30" ht="19.25">
-      <c r="A30" s="4">
+      <c r="A30" s="38">
         <v>1234756</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="38">
         <v>111</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="19.3">
-      <c r="A31" s="4">
+      <c r="A31" s="38">
         <v>1234756</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="H31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="38">
         <v>782.1</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="42">
         <v>18</v>
       </c>
     </row>
     <row r="32" ht="19.2">
-      <c r="A32" s="4">
+      <c r="A32" s="38">
         <v>1235218</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="41" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="H32" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="38">
         <v>-85</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="42">
         <v>-22</v>
       </c>
     </row>
